--- a/Code/Results/Cases/Case_8_42/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_8_42/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.909491117215623</v>
+        <v>0.865951323397212</v>
       </c>
       <c r="C2">
-        <v>0.1008119603225381</v>
+        <v>0.113996649844232</v>
       </c>
       <c r="D2">
-        <v>0.07193466309171015</v>
+        <v>0.07942338487133327</v>
       </c>
       <c r="E2">
-        <v>0.04593703838837015</v>
+        <v>0.04927515115708125</v>
       </c>
       <c r="F2">
-        <v>0.8419365991509906</v>
+        <v>0.7520538049096217</v>
       </c>
       <c r="G2">
-        <v>0.0008313248617535334</v>
+        <v>0.02809372767307972</v>
       </c>
       <c r="H2">
-        <v>0.01432828135859479</v>
+        <v>0.00964443540746808</v>
       </c>
       <c r="I2">
-        <v>0.01388184373392054</v>
+        <v>0.007955824764436237</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.5157754266098458</v>
+        <v>0.4412773862716683</v>
       </c>
       <c r="L2">
-        <v>0.06052154159859313</v>
+        <v>0.1932002353943574</v>
       </c>
       <c r="M2">
-        <v>0.8104106618829405</v>
+        <v>0.1402222395345465</v>
       </c>
       <c r="N2">
-        <v>0.1536569476344809</v>
+        <v>0.06237548033295681</v>
       </c>
       <c r="O2">
-        <v>0.2005944397906738</v>
+        <v>0.8186154707502453</v>
       </c>
       <c r="P2">
-        <v>1.143726761461684</v>
+        <v>0.1701805481214507</v>
       </c>
       <c r="Q2">
-        <v>2.198489680902441</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.1974285332616788</v>
+      </c>
+      <c r="R2">
+        <v>1.046303183474739</v>
+      </c>
+      <c r="S2">
+        <v>1.898845313806945</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7946433906833761</v>
+        <v>0.7582519423689007</v>
       </c>
       <c r="C3">
-        <v>0.09202204033374528</v>
+        <v>0.1029353124427956</v>
       </c>
       <c r="D3">
-        <v>0.06483439282695969</v>
+        <v>0.07231899603779368</v>
       </c>
       <c r="E3">
-        <v>0.04373851083564695</v>
+        <v>0.04748239534204401</v>
       </c>
       <c r="F3">
-        <v>0.8229363901810061</v>
+        <v>0.7340549019175029</v>
       </c>
       <c r="G3">
-        <v>0.0008339159229567699</v>
+        <v>0.03221433276258334</v>
       </c>
       <c r="H3">
-        <v>0.01719184514628797</v>
+        <v>0.01173477949043172</v>
       </c>
       <c r="I3">
-        <v>0.01657064495157368</v>
+        <v>0.009623177279606931</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.5144339436394212</v>
+        <v>0.4406057621046955</v>
       </c>
       <c r="L3">
-        <v>0.05867298044915703</v>
+        <v>0.1969816113544347</v>
       </c>
       <c r="M3">
-        <v>0.7055894098315605</v>
+        <v>0.1376289159845356</v>
       </c>
       <c r="N3">
-        <v>0.1393344679689719</v>
+        <v>0.06090705562229815</v>
       </c>
       <c r="O3">
-        <v>0.1767452429775211</v>
+        <v>0.7137230765201252</v>
       </c>
       <c r="P3">
-        <v>1.17584439785727</v>
+        <v>0.1546654215995105</v>
       </c>
       <c r="Q3">
-        <v>2.170213964474556</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.1738833271509996</v>
+      </c>
+      <c r="R3">
+        <v>1.073083624199104</v>
+      </c>
+      <c r="S3">
+        <v>1.870234216139337</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7238422078021074</v>
+        <v>0.6916439164335486</v>
       </c>
       <c r="C4">
-        <v>0.08666957498562766</v>
+        <v>0.09623744595172212</v>
       </c>
       <c r="D4">
-        <v>0.06049749110073321</v>
+        <v>0.06799653123761829</v>
       </c>
       <c r="E4">
-        <v>0.04237589365307493</v>
+        <v>0.0463710138113278</v>
       </c>
       <c r="F4">
-        <v>0.8117530657061494</v>
+        <v>0.7232772498032887</v>
       </c>
       <c r="G4">
-        <v>0.0008355670534511917</v>
+        <v>0.03498479575691504</v>
       </c>
       <c r="H4">
-        <v>0.01915400842351445</v>
+        <v>0.0131756659966865</v>
       </c>
       <c r="I4">
-        <v>0.01844506783873889</v>
+        <v>0.01081320908954098</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.5138333195803</v>
+        <v>0.4402853279855528</v>
       </c>
       <c r="L4">
-        <v>0.05750222331554244</v>
+        <v>0.1993447682878582</v>
       </c>
       <c r="M4">
-        <v>0.641169060440518</v>
+        <v>0.1365704414903401</v>
       </c>
       <c r="N4">
-        <v>0.1305929344397114</v>
+        <v>0.05997139290504361</v>
       </c>
       <c r="O4">
-        <v>0.1620887179704873</v>
+        <v>0.6491662653753849</v>
       </c>
       <c r="P4">
-        <v>1.196169510966596</v>
+        <v>0.145222154634304</v>
       </c>
       <c r="Q4">
-        <v>2.154237171534717</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.159393074995279</v>
+      </c>
+      <c r="R4">
+        <v>1.090057070424651</v>
+      </c>
+      <c r="S4">
+        <v>1.853360880819508</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6943033929442208</v>
+        <v>0.6637750969763374</v>
       </c>
       <c r="C5">
-        <v>0.08465770158112917</v>
+        <v>0.09371099587382048</v>
       </c>
       <c r="D5">
-        <v>0.05876082700702767</v>
+        <v>0.0662711722562932</v>
       </c>
       <c r="E5">
-        <v>0.04180276327168464</v>
+        <v>0.0459012666899401</v>
       </c>
       <c r="F5">
-        <v>0.80686906411146</v>
+        <v>0.7185175589703192</v>
       </c>
       <c r="G5">
-        <v>0.0008362598022031955</v>
+        <v>0.0361809441143357</v>
       </c>
       <c r="H5">
-        <v>0.02000887111034805</v>
+        <v>0.01380544613382068</v>
       </c>
       <c r="I5">
-        <v>0.0193544514592574</v>
+        <v>0.01143789757720537</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.5133031465819613</v>
+        <v>0.4398560259389086</v>
       </c>
       <c r="L5">
-        <v>0.05699640311334608</v>
+        <v>0.2001592094303533</v>
       </c>
       <c r="M5">
-        <v>0.6148499152678824</v>
+        <v>0.1361909667016086</v>
       </c>
       <c r="N5">
-        <v>0.127151267787859</v>
+        <v>0.05956366419938508</v>
       </c>
       <c r="O5">
-        <v>0.1560735825263251</v>
+        <v>0.6227690283466103</v>
       </c>
       <c r="P5">
-        <v>1.204476095426958</v>
+        <v>0.1415060803787469</v>
       </c>
       <c r="Q5">
-        <v>2.146780307354391</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.1534407660408625</v>
+      </c>
+      <c r="R5">
+        <v>1.097012095527895</v>
+      </c>
+      <c r="S5">
+        <v>1.845409004347147</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6886425297049357</v>
+        <v>0.6584000509187149</v>
       </c>
       <c r="C6">
-        <v>0.08452061232674168</v>
+        <v>0.09351539722201352</v>
       </c>
       <c r="D6">
-        <v>0.05850375712639533</v>
+        <v>0.06601759824970088</v>
       </c>
       <c r="E6">
-        <v>0.0416896377144198</v>
+        <v>0.0458058530118528</v>
       </c>
       <c r="F6">
-        <v>0.8055213243314299</v>
+        <v>0.71720041723664</v>
       </c>
       <c r="G6">
-        <v>0.0008363813793257346</v>
+        <v>0.03639328932578823</v>
       </c>
       <c r="H6">
-        <v>0.02016045838067604</v>
+        <v>0.01391740780264059</v>
       </c>
       <c r="I6">
-        <v>0.01962700588731447</v>
+        <v>0.01167390097384402</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.5128025373020542</v>
+        <v>0.4393938777974427</v>
       </c>
       <c r="L6">
-        <v>0.05688806839727967</v>
+        <v>0.2001015620051838</v>
       </c>
       <c r="M6">
-        <v>0.6104188641819661</v>
+        <v>0.1360350023877732</v>
       </c>
       <c r="N6">
-        <v>0.1267133336293114</v>
+        <v>0.05947386387395781</v>
       </c>
       <c r="O6">
-        <v>0.1550273157127542</v>
+        <v>0.6183230348871405</v>
       </c>
       <c r="P6">
-        <v>1.205712488273293</v>
+        <v>0.141027740711678</v>
       </c>
       <c r="Q6">
-        <v>2.143991703009618</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.1524045731264287</v>
+      </c>
+      <c r="R6">
+        <v>1.098063387700627</v>
+      </c>
+      <c r="S6">
+        <v>1.842578273715461</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7213848084965093</v>
+        <v>0.688009201403645</v>
       </c>
       <c r="C7">
-        <v>0.0871801277739408</v>
+        <v>0.09624866355014916</v>
       </c>
       <c r="D7">
-        <v>0.06055880539019398</v>
+        <v>0.068482084761186</v>
       </c>
       <c r="E7">
-        <v>0.04231980221534215</v>
+        <v>0.04638855334443548</v>
       </c>
       <c r="F7">
-        <v>0.8102033231937256</v>
+        <v>0.7191932623780914</v>
       </c>
       <c r="G7">
-        <v>0.000835591407030336</v>
+        <v>0.03551396617870251</v>
       </c>
       <c r="H7">
-        <v>0.01918272344660488</v>
+        <v>0.01321661848675146</v>
       </c>
       <c r="I7">
-        <v>0.01876324471092783</v>
+        <v>0.0111773748685513</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.5126920799183416</v>
+        <v>0.4379055209219409</v>
       </c>
       <c r="L7">
-        <v>0.05743085867976294</v>
+        <v>0.1982182802094101</v>
       </c>
       <c r="M7">
-        <v>0.6406504348922368</v>
+        <v>0.1359197493253816</v>
       </c>
       <c r="N7">
-        <v>0.1309098753040558</v>
+        <v>0.05988120530793939</v>
       </c>
       <c r="O7">
-        <v>0.1618782750743719</v>
+        <v>0.6464285941895582</v>
       </c>
       <c r="P7">
-        <v>1.195879730449252</v>
+        <v>0.1454536357085274</v>
       </c>
       <c r="Q7">
-        <v>2.149851999515107</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.1589564407551691</v>
+      </c>
+      <c r="R7">
+        <v>1.089446267723933</v>
+      </c>
+      <c r="S7">
+        <v>1.841126831953488</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8671982387179185</v>
+        <v>0.822084896039172</v>
       </c>
       <c r="C8">
-        <v>0.0984904914512299</v>
+        <v>0.1090724343797831</v>
       </c>
       <c r="D8">
-        <v>0.06959431794160764</v>
+        <v>0.07849592344727796</v>
       </c>
       <c r="E8">
-        <v>0.04511799140280459</v>
+        <v>0.04883620977971326</v>
       </c>
       <c r="F8">
-        <v>0.8333286896016361</v>
+        <v>0.7354355914024779</v>
       </c>
       <c r="G8">
-        <v>0.0008322246310716613</v>
+        <v>0.03175777414050263</v>
       </c>
       <c r="H8">
-        <v>0.01529175780419104</v>
+        <v>0.0103998823795036</v>
       </c>
       <c r="I8">
-        <v>0.01513019058738418</v>
+        <v>0.008958071235163345</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.5137759611291841</v>
+        <v>0.4353894284655198</v>
       </c>
       <c r="L8">
-        <v>0.05980768245903523</v>
+        <v>0.1920119709926666</v>
       </c>
       <c r="M8">
-        <v>0.7740566556422266</v>
+        <v>0.1374673213878239</v>
       </c>
       <c r="N8">
-        <v>0.1491910635588241</v>
+        <v>0.06171891032748356</v>
       </c>
       <c r="O8">
-        <v>0.1922005724968052</v>
+        <v>0.7748188837782664</v>
       </c>
       <c r="P8">
-        <v>1.154203459437947</v>
+        <v>0.1649999134642144</v>
       </c>
       <c r="Q8">
-        <v>2.182810254878774</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.1883829035907354</v>
+      </c>
+      <c r="R8">
+        <v>1.054093115613229</v>
+      </c>
+      <c r="S8">
+        <v>1.857254147142385</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.154688617331999</v>
+        <v>1.089327590143682</v>
       </c>
       <c r="C9">
-        <v>0.1201314584711923</v>
+        <v>0.1359528768460052</v>
       </c>
       <c r="D9">
-        <v>0.08735739550144217</v>
+        <v>0.0967652129293981</v>
       </c>
       <c r="E9">
-        <v>0.05059691733945648</v>
+        <v>0.05337824177329686</v>
       </c>
       <c r="F9">
-        <v>0.8853155414042888</v>
+        <v>0.7814389191541551</v>
       </c>
       <c r="G9">
-        <v>0.0008260680991863336</v>
+        <v>0.02312579357288769</v>
       </c>
       <c r="H9">
-        <v>0.009324141389108281</v>
+        <v>0.006088349977149521</v>
       </c>
       <c r="I9">
-        <v>0.009381849367662731</v>
+        <v>0.005383359297035817</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.5197378862921482</v>
+        <v>0.4378076740092105</v>
       </c>
       <c r="L9">
-        <v>0.06430936851266722</v>
+        <v>0.1832556945977188</v>
       </c>
       <c r="M9">
-        <v>1.035683677025759</v>
+        <v>0.1466088285627762</v>
       </c>
       <c r="N9">
-        <v>0.1848507775976955</v>
+        <v>0.06525449471701261</v>
       </c>
       <c r="O9">
-        <v>0.2518280324980147</v>
+        <v>1.033824706989066</v>
       </c>
       <c r="P9">
-        <v>1.078012765469244</v>
+        <v>0.2036976271420485</v>
       </c>
       <c r="Q9">
-        <v>2.266506658004829</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.2469015820398432</v>
+      </c>
+      <c r="R9">
+        <v>0.9909242043497937</v>
+      </c>
+      <c r="S9">
+        <v>1.930815435863138</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.357811539011152</v>
+        <v>1.269996930980881</v>
       </c>
       <c r="C10">
-        <v>0.1375119843838917</v>
+        <v>0.1538449483968378</v>
       </c>
       <c r="D10">
-        <v>0.0990583182124638</v>
+        <v>0.1113975886411822</v>
       </c>
       <c r="E10">
-        <v>0.05308203870337103</v>
+        <v>0.05565172204463309</v>
       </c>
       <c r="F10">
-        <v>0.9166865872394467</v>
+        <v>0.7938432500649171</v>
       </c>
       <c r="G10">
-        <v>0.0008219022120724685</v>
+        <v>0.02631293634487086</v>
       </c>
       <c r="H10">
-        <v>0.006421581084925521</v>
+        <v>0.004152263298919046</v>
       </c>
       <c r="I10">
-        <v>0.006587645807146991</v>
+        <v>0.003912941567985051</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.5204111574210479</v>
+        <v>0.4290173787649501</v>
       </c>
       <c r="L10">
-        <v>0.06656468972972096</v>
+        <v>0.1731296890270073</v>
       </c>
       <c r="M10">
-        <v>1.225662634287886</v>
+        <v>0.1514899795158158</v>
       </c>
       <c r="N10">
-        <v>0.2047382548639476</v>
+        <v>0.06687602034751716</v>
       </c>
       <c r="O10">
-        <v>0.2913821770480567</v>
+        <v>1.207926593278927</v>
       </c>
       <c r="P10">
-        <v>1.024220458868603</v>
+        <v>0.224968460177152</v>
       </c>
       <c r="Q10">
-        <v>2.313490418366371</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0.2842219920942384</v>
+      </c>
+      <c r="R10">
+        <v>0.9471078129138739</v>
+      </c>
+      <c r="S10">
+        <v>1.925277140537503</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.395155858666584</v>
+        <v>1.292398553096803</v>
       </c>
       <c r="C11">
-        <v>0.1540626822750966</v>
+        <v>0.1634656543147628</v>
       </c>
       <c r="D11">
-        <v>0.09142086908676106</v>
+        <v>0.1085062648840278</v>
       </c>
       <c r="E11">
-        <v>0.04318997443810169</v>
+        <v>0.04641956418076987</v>
       </c>
       <c r="F11">
-        <v>0.8543108560164612</v>
+        <v>0.7094694267667734</v>
       </c>
       <c r="G11">
-        <v>0.0008206878567762695</v>
+        <v>0.06042029327347009</v>
       </c>
       <c r="H11">
-        <v>0.02494891016489831</v>
+        <v>0.02285798473016243</v>
       </c>
       <c r="I11">
-        <v>0.006470023188317242</v>
+        <v>0.004280342744534593</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.4825835660061166</v>
+        <v>0.3839689498670893</v>
       </c>
       <c r="L11">
-        <v>0.06416334164770232</v>
+        <v>0.1547775667320099</v>
       </c>
       <c r="M11">
-        <v>1.291806895057334</v>
+        <v>0.1370703406744376</v>
       </c>
       <c r="N11">
-        <v>0.159124415917006</v>
+        <v>0.06563344791243075</v>
       </c>
       <c r="O11">
-        <v>0.2731688348754595</v>
+        <v>1.244112683784806</v>
       </c>
       <c r="P11">
-        <v>0.9968674508517541</v>
+        <v>0.1755817821700134</v>
       </c>
       <c r="Q11">
-        <v>2.158618514725816</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.2634726795006586</v>
+      </c>
+      <c r="R11">
+        <v>0.9375264691459471</v>
+      </c>
+      <c r="S11">
+        <v>1.704703879989268</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.386274296270415</v>
+        <v>1.280439700907721</v>
       </c>
       <c r="C12">
-        <v>0.1640143082094596</v>
+        <v>0.1690402789259906</v>
       </c>
       <c r="D12">
-        <v>0.08264935245440341</v>
+        <v>0.1012347715585307</v>
       </c>
       <c r="E12">
-        <v>0.03680217808396691</v>
+        <v>0.04008795430421142</v>
       </c>
       <c r="F12">
-        <v>0.7984166915381365</v>
+        <v>0.6494015631100751</v>
       </c>
       <c r="G12">
-        <v>0.0008204584170856763</v>
+        <v>0.08516160620444424</v>
       </c>
       <c r="H12">
-        <v>0.06384375873756909</v>
+        <v>0.06176103050572834</v>
       </c>
       <c r="I12">
-        <v>0.006372671190056245</v>
+        <v>0.004258211143630675</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.4533021753207649</v>
+        <v>0.3556706424265883</v>
       </c>
       <c r="L12">
-        <v>0.06740654531130197</v>
+        <v>0.1445040901708126</v>
       </c>
       <c r="M12">
-        <v>1.307261757548048</v>
+        <v>0.1265439154670922</v>
       </c>
       <c r="N12">
-        <v>0.1215476407041081</v>
+        <v>0.06991578674263543</v>
       </c>
       <c r="O12">
-        <v>0.2502034159609465</v>
+        <v>1.245950522165771</v>
       </c>
       <c r="P12">
-        <v>0.9901236319538498</v>
+        <v>0.1351475347739282</v>
       </c>
       <c r="Q12">
-        <v>2.02689108438571</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.2398289772612578</v>
+      </c>
+      <c r="R12">
+        <v>0.9455970531257272</v>
+      </c>
+      <c r="S12">
+        <v>1.560406473900827</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.338071449349997</v>
+        <v>1.241407260719541</v>
       </c>
       <c r="C13">
-        <v>0.1702104437634375</v>
+        <v>0.1745532852537934</v>
       </c>
       <c r="D13">
-        <v>0.07268055568807341</v>
+        <v>0.08952455415906257</v>
       </c>
       <c r="E13">
-        <v>0.0326474814358062</v>
+        <v>0.03568721470589908</v>
       </c>
       <c r="F13">
-        <v>0.7419102406582709</v>
+        <v>0.6054620973565221</v>
       </c>
       <c r="G13">
-        <v>0.0008209953396925266</v>
+        <v>0.07972579785162992</v>
       </c>
       <c r="H13">
-        <v>0.1200821651203938</v>
+        <v>0.1178523941970724</v>
       </c>
       <c r="I13">
-        <v>0.006694774029466721</v>
+        <v>0.004409503164788831</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.4270656730734643</v>
+        <v>0.337880593508924</v>
       </c>
       <c r="L13">
-        <v>0.0749057692084385</v>
+        <v>0.1388381162426775</v>
       </c>
       <c r="M13">
-        <v>1.284156597456757</v>
+        <v>0.1187064587078481</v>
       </c>
       <c r="N13">
-        <v>0.08869242470402838</v>
+        <v>0.07843882505417099</v>
       </c>
       <c r="O13">
-        <v>0.22220209034327</v>
+        <v>1.227069350783921</v>
       </c>
       <c r="P13">
-        <v>0.9975539615093076</v>
+        <v>0.1000471731392309</v>
       </c>
       <c r="Q13">
-        <v>1.89834050079142</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.2129183801288228</v>
+      </c>
+      <c r="R13">
+        <v>0.9608829721345913</v>
+      </c>
+      <c r="S13">
+        <v>1.468737320128241</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.28609636591915</v>
+        <v>1.201079159164664</v>
       </c>
       <c r="C14">
-        <v>0.173070011607166</v>
+        <v>0.1787036699068096</v>
       </c>
       <c r="D14">
-        <v>0.06528851242115508</v>
+        <v>0.07972537561152393</v>
       </c>
       <c r="E14">
-        <v>0.03107241287419582</v>
+        <v>0.03396015174328848</v>
       </c>
       <c r="F14">
-        <v>0.7021858428180607</v>
+        <v>0.5806591411577102</v>
       </c>
       <c r="G14">
-        <v>0.0008217206424446053</v>
+        <v>0.06339879959856631</v>
       </c>
       <c r="H14">
-        <v>0.1698820255880378</v>
+        <v>0.1674767853911163</v>
       </c>
       <c r="I14">
-        <v>0.007217022754679725</v>
+        <v>0.004707903202510799</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.4100780800141699</v>
+        <v>0.3293228942647808</v>
       </c>
       <c r="L14">
-        <v>0.08273845756005827</v>
+        <v>0.1364920482095346</v>
       </c>
       <c r="M14">
-        <v>1.250526045029858</v>
+        <v>0.114264453237519</v>
       </c>
       <c r="N14">
-        <v>0.06884295560344356</v>
+        <v>0.08695065316659623</v>
       </c>
       <c r="O14">
-        <v>0.2005596971929826</v>
+        <v>1.204114684003201</v>
       </c>
       <c r="P14">
-        <v>1.009542131232031</v>
+        <v>0.07886114909315722</v>
       </c>
       <c r="Q14">
-        <v>1.809756159809098</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.1927012686842033</v>
+      </c>
+      <c r="R14">
+        <v>0.973619460685633</v>
+      </c>
+      <c r="S14">
+        <v>1.424043782648411</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.264434207145541</v>
+        <v>1.184517922913756</v>
       </c>
       <c r="C15">
-        <v>0.1731600507988134</v>
+        <v>0.1799073850843342</v>
       </c>
       <c r="D15">
-        <v>0.06323984721063169</v>
+        <v>0.07661128690359931</v>
       </c>
       <c r="E15">
-        <v>0.03084755370652492</v>
+        <v>0.03372987829749713</v>
       </c>
       <c r="F15">
-        <v>0.6918430465091987</v>
+        <v>0.5765554483395405</v>
       </c>
       <c r="G15">
-        <v>0.0008220740191942394</v>
+        <v>0.05508660709309865</v>
       </c>
       <c r="H15">
-        <v>0.1826123852171548</v>
+        <v>0.1801184808697514</v>
       </c>
       <c r="I15">
-        <v>0.007578881069811416</v>
+        <v>0.004976043023862786</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.406153682002472</v>
+        <v>0.3285569607817038</v>
       </c>
       <c r="L15">
-        <v>0.08481734750600012</v>
+        <v>0.1364982988901247</v>
       </c>
       <c r="M15">
-        <v>1.234138809662369</v>
+        <v>0.1134782925381774</v>
       </c>
       <c r="N15">
-        <v>0.06437995704352417</v>
+        <v>0.08920609823499959</v>
       </c>
       <c r="O15">
-        <v>0.1941527166799837</v>
+        <v>1.1936115496502</v>
       </c>
       <c r="P15">
-        <v>1.014910541678105</v>
+        <v>0.07413428926851395</v>
       </c>
       <c r="Q15">
-        <v>1.787353498434129</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.1869195113909647</v>
+      </c>
+      <c r="R15">
+        <v>0.9772015538764194</v>
+      </c>
+      <c r="S15">
+        <v>1.420052808705861</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.186655899543524</v>
+        <v>1.125682568404244</v>
       </c>
       <c r="C16">
-        <v>0.1644812872721957</v>
+        <v>0.177544534197807</v>
       </c>
       <c r="D16">
-        <v>0.06052271104512386</v>
+        <v>0.06986434308466727</v>
       </c>
       <c r="E16">
-        <v>0.03067442589804337</v>
+        <v>0.03375969166600967</v>
       </c>
       <c r="F16">
-        <v>0.6892870292048485</v>
+        <v>0.5961053858746084</v>
       </c>
       <c r="G16">
-        <v>0.0008237499971675097</v>
+        <v>0.02732283276048086</v>
       </c>
       <c r="H16">
-        <v>0.1711025803225823</v>
+        <v>0.1681355767576349</v>
       </c>
       <c r="I16">
-        <v>0.008829054178620233</v>
+        <v>0.005675541211800805</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.4105184252124694</v>
+        <v>0.3422749903144791</v>
       </c>
       <c r="L16">
-        <v>0.08198961177989972</v>
+        <v>0.1426732293887909</v>
       </c>
       <c r="M16">
-        <v>1.157180507932907</v>
+        <v>0.1166022595395315</v>
       </c>
       <c r="N16">
-        <v>0.06348920644757428</v>
+        <v>0.08652514915315379</v>
       </c>
       <c r="O16">
-        <v>0.1835128789998492</v>
+        <v>1.143637987804453</v>
       </c>
       <c r="P16">
-        <v>1.034028618067325</v>
+        <v>0.07366699453519843</v>
       </c>
       <c r="Q16">
-        <v>1.790762393163234</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.1786560821944363</v>
+      </c>
+      <c r="R16">
+        <v>0.9808140713654225</v>
+      </c>
+      <c r="S16">
+        <v>1.488778252737092</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.15448699053195</v>
+        <v>1.099944361242336</v>
       </c>
       <c r="C17">
-        <v>0.1563417194354315</v>
+        <v>0.1722830580408186</v>
       </c>
       <c r="D17">
-        <v>0.0623023685766384</v>
+        <v>0.07020599018026275</v>
       </c>
       <c r="E17">
-        <v>0.03114997932063024</v>
+        <v>0.03430979019900782</v>
       </c>
       <c r="F17">
-        <v>0.7082571549265708</v>
+        <v>0.6223407285243638</v>
       </c>
       <c r="G17">
-        <v>0.0008246548655533558</v>
+        <v>0.02168297393765428</v>
       </c>
       <c r="H17">
-        <v>0.1340424634818049</v>
+        <v>0.130806759660004</v>
       </c>
       <c r="I17">
-        <v>0.009550798724686338</v>
+        <v>0.006097868178748023</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.422779443513825</v>
+        <v>0.3567592278509153</v>
       </c>
       <c r="L17">
-        <v>0.07522084925535921</v>
+        <v>0.1488298367164713</v>
       </c>
       <c r="M17">
-        <v>1.116116154650598</v>
+        <v>0.1208433070445718</v>
       </c>
       <c r="N17">
-        <v>0.07272773980585967</v>
+        <v>0.07950310077162115</v>
       </c>
       <c r="O17">
-        <v>0.1866607258486397</v>
+        <v>1.113864709476445</v>
       </c>
       <c r="P17">
-        <v>1.042422453832128</v>
+        <v>0.08391569775201191</v>
       </c>
       <c r="Q17">
-        <v>1.840173147665666</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.18267170279589</v>
+      </c>
+      <c r="R17">
+        <v>0.9805555116389151</v>
+      </c>
+      <c r="S17">
+        <v>1.55969162082917</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.159326756864942</v>
+        <v>1.104172162148927</v>
       </c>
       <c r="C18">
-        <v>0.1473791416999575</v>
+        <v>0.1648785296550699</v>
       </c>
       <c r="D18">
-        <v>0.0682806536508167</v>
+        <v>0.07585590661233255</v>
       </c>
       <c r="E18">
-        <v>0.03344524362328061</v>
+        <v>0.03650309838701249</v>
       </c>
       <c r="F18">
-        <v>0.7496929152096072</v>
+        <v>0.6635604189663624</v>
       </c>
       <c r="G18">
-        <v>0.0008249522992076965</v>
+        <v>0.02033974235446445</v>
       </c>
       <c r="H18">
-        <v>0.08137806335455622</v>
+        <v>0.07806745607818755</v>
       </c>
       <c r="I18">
-        <v>0.009499109369841108</v>
+        <v>0.005908215956905494</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.4445894020724559</v>
+        <v>0.3767476542585833</v>
       </c>
       <c r="L18">
-        <v>0.06693900924801888</v>
+        <v>0.1567709065013965</v>
       </c>
       <c r="M18">
-        <v>1.1011114830618</v>
+        <v>0.1276971465990115</v>
       </c>
       <c r="N18">
-        <v>0.09449919013811581</v>
+        <v>0.07057089786380999</v>
       </c>
       <c r="O18">
-        <v>0.2025334078842427</v>
+        <v>1.103312699270731</v>
       </c>
       <c r="P18">
-        <v>1.044506377660774</v>
+        <v>0.1075276991544598</v>
       </c>
       <c r="Q18">
-        <v>1.939358611142552</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.1986896370332119</v>
+      </c>
+      <c r="R18">
+        <v>0.9763326485449788</v>
+      </c>
+      <c r="S18">
+        <v>1.65833010470007</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.18958718189009</v>
+        <v>1.129467534577344</v>
       </c>
       <c r="C19">
-        <v>0.1399775511372638</v>
+        <v>0.1585480959267187</v>
       </c>
       <c r="D19">
-        <v>0.07768112252672665</v>
+        <v>0.08553568563586111</v>
       </c>
       <c r="E19">
-        <v>0.03878741099714134</v>
+        <v>0.04159226957101225</v>
       </c>
       <c r="F19">
-        <v>0.8053920658851084</v>
+        <v>0.7146965262602905</v>
       </c>
       <c r="G19">
-        <v>0.0008247248771033959</v>
+        <v>0.01970719919392883</v>
       </c>
       <c r="H19">
-        <v>0.03560070843157348</v>
+        <v>0.03241890007018355</v>
       </c>
       <c r="I19">
-        <v>0.009401451466711563</v>
+        <v>0.005918608228962619</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.47191381970039</v>
+        <v>0.3998384328094851</v>
       </c>
       <c r="L19">
-        <v>0.06206192089588303</v>
+        <v>0.1655518645454208</v>
       </c>
       <c r="M19">
-        <v>1.107631903113202</v>
+        <v>0.1362138912786506</v>
       </c>
       <c r="N19">
-        <v>0.1297454693363207</v>
+        <v>0.06469056214859314</v>
       </c>
       <c r="O19">
-        <v>0.2280577435040492</v>
+        <v>1.110674917756086</v>
       </c>
       <c r="P19">
-        <v>1.044758818041077</v>
+        <v>0.1453860177283346</v>
       </c>
       <c r="Q19">
-        <v>2.068025464928667</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.2239294354941634</v>
+      </c>
+      <c r="R19">
+        <v>0.9714261894143625</v>
+      </c>
+      <c r="S19">
+        <v>1.773922215771847</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.297721611661132</v>
+        <v>1.22069108040489</v>
       </c>
       <c r="C20">
-        <v>0.1347129732285595</v>
+        <v>0.1533474377388586</v>
       </c>
       <c r="D20">
-        <v>0.09618059522036049</v>
+        <v>0.1061797070597095</v>
       </c>
       <c r="E20">
-        <v>0.05222447478743852</v>
+        <v>0.05459543903906194</v>
       </c>
       <c r="F20">
-        <v>0.9033534497034879</v>
+        <v>0.7947428454317489</v>
       </c>
       <c r="G20">
-        <v>0.0008230202065451629</v>
+        <v>0.02015718732857597</v>
       </c>
       <c r="H20">
-        <v>0.007126677486924748</v>
+        <v>0.004581482690455108</v>
       </c>
       <c r="I20">
-        <v>0.008139365797267928</v>
+        <v>0.005241409526843377</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.516536940892216</v>
+        <v>0.4323970889517668</v>
       </c>
       <c r="L20">
-        <v>0.06576004764490495</v>
+        <v>0.1760999137593444</v>
       </c>
       <c r="M20">
-        <v>1.175122471734511</v>
+        <v>0.1505395710732103</v>
       </c>
       <c r="N20">
-        <v>0.2003511417091204</v>
+        <v>0.06635124888042832</v>
       </c>
       <c r="O20">
-        <v>0.2804098400760751</v>
+        <v>1.169877975233078</v>
       </c>
       <c r="P20">
-        <v>1.037298361925598</v>
+        <v>0.2205848864427367</v>
       </c>
       <c r="Q20">
-        <v>2.286709757891003</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0.2746925475217061</v>
+      </c>
+      <c r="R20">
+        <v>0.9583381322372873</v>
+      </c>
+      <c r="S20">
+        <v>1.940813691270989</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.463645928971886</v>
+        <v>1.343265443412207</v>
       </c>
       <c r="C21">
-        <v>0.1465744072034454</v>
+        <v>0.1545597219054855</v>
       </c>
       <c r="D21">
-        <v>0.1075329929606994</v>
+        <v>0.1286559002548415</v>
       </c>
       <c r="E21">
-        <v>0.05642366792025655</v>
+        <v>0.06007633908544285</v>
       </c>
       <c r="F21">
-        <v>0.9429168393178387</v>
+        <v>0.7714383844939121</v>
       </c>
       <c r="G21">
-        <v>0.000819781804218351</v>
+        <v>0.08115372047315361</v>
       </c>
       <c r="H21">
-        <v>0.004749351584273254</v>
+        <v>0.003039965840073156</v>
       </c>
       <c r="I21">
-        <v>0.006116877676123345</v>
+        <v>0.00425971408505621</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.5249427235466833</v>
+        <v>0.4097205485623618</v>
       </c>
       <c r="L21">
-        <v>0.0688397659198996</v>
+        <v>0.163289932963643</v>
       </c>
       <c r="M21">
-        <v>1.324627917751968</v>
+        <v>0.1481163708330193</v>
       </c>
       <c r="N21">
-        <v>0.2261088338790813</v>
+        <v>0.06827686507096509</v>
       </c>
       <c r="O21">
-        <v>0.3173510632427679</v>
+        <v>1.263242972733877</v>
       </c>
       <c r="P21">
-        <v>0.9987030358950031</v>
+        <v>0.2462728800718565</v>
       </c>
       <c r="Q21">
-        <v>2.359333382492963</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0.3052521110685333</v>
+      </c>
+      <c r="R21">
+        <v>0.9272333361829403</v>
+      </c>
+      <c r="S21">
+        <v>1.826902448238627</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.57170930923445</v>
+        <v>1.420769668734977</v>
       </c>
       <c r="C22">
-        <v>0.1541227956825537</v>
+        <v>0.1546353197411463</v>
       </c>
       <c r="D22">
-        <v>0.1140925059629012</v>
+        <v>0.1436626984522036</v>
       </c>
       <c r="E22">
-        <v>0.05847610958573846</v>
+        <v>0.06324146806969644</v>
       </c>
       <c r="F22">
-        <v>0.9667641871505737</v>
+        <v>0.7512145661292351</v>
       </c>
       <c r="G22">
-        <v>0.0008177358708882596</v>
+        <v>0.1695623229890799</v>
       </c>
       <c r="H22">
-        <v>0.003591554364136162</v>
+        <v>0.002310751676834921</v>
       </c>
       <c r="I22">
-        <v>0.004727740431141214</v>
+        <v>0.003364017026221688</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.5298927583230721</v>
+        <v>0.3933001408499841</v>
       </c>
       <c r="L22">
-        <v>0.07046493568928991</v>
+        <v>0.1549783274410252</v>
       </c>
       <c r="M22">
-        <v>1.421539942760319</v>
+        <v>0.1457063223534014</v>
       </c>
       <c r="N22">
-        <v>0.2390495180735712</v>
+        <v>0.0692719036668894</v>
       </c>
       <c r="O22">
-        <v>0.339556033586355</v>
+        <v>1.319493866978206</v>
       </c>
       <c r="P22">
-        <v>0.9739517595273779</v>
+        <v>0.25878654637323</v>
       </c>
       <c r="Q22">
-        <v>2.40361878981858</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0.3228451788465421</v>
+      </c>
+      <c r="R22">
+        <v>0.9106136016121269</v>
+      </c>
+      <c r="S22">
+        <v>1.741974592948509</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.51655990440014</v>
+        <v>1.385272094338831</v>
       </c>
       <c r="C23">
-        <v>0.1494149982264048</v>
+        <v>0.1552827061756119</v>
       </c>
       <c r="D23">
-        <v>0.1104862679071346</v>
+        <v>0.1342142581660681</v>
       </c>
       <c r="E23">
-        <v>0.05743669434421506</v>
+        <v>0.06136928346386306</v>
       </c>
       <c r="F23">
-        <v>0.9556997346864762</v>
+        <v>0.7697695602903636</v>
       </c>
       <c r="G23">
-        <v>0.0008188096470333426</v>
+        <v>0.1039022845371989</v>
       </c>
       <c r="H23">
-        <v>0.004179460632923848</v>
+        <v>0.002668017149709989</v>
       </c>
       <c r="I23">
-        <v>0.00510678619278071</v>
+        <v>0.003421985533096361</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.5285236640588096</v>
+        <v>0.4060538850148525</v>
       </c>
       <c r="L23">
-        <v>0.06966972737907895</v>
+        <v>0.1606686715819805</v>
       </c>
       <c r="M23">
-        <v>1.370015408061732</v>
+        <v>0.1486971343525596</v>
       </c>
       <c r="N23">
-        <v>0.2316937658323752</v>
+        <v>0.06883611112043919</v>
       </c>
       <c r="O23">
-        <v>0.3278615489814811</v>
+        <v>1.295742555562924</v>
       </c>
       <c r="P23">
-        <v>0.9873669061595309</v>
+        <v>0.251895565247807</v>
       </c>
       <c r="Q23">
-        <v>2.384762242714913</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0.3142496028315307</v>
+      </c>
+      <c r="R23">
+        <v>0.918452500694638</v>
+      </c>
+      <c r="S23">
+        <v>1.809955067775661</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.303463278663713</v>
+        <v>1.226060418536605</v>
       </c>
       <c r="C24">
-        <v>0.1328432027555806</v>
+        <v>0.1514459265765851</v>
       </c>
       <c r="D24">
-        <v>0.09705677409498037</v>
+        <v>0.1070185170650717</v>
       </c>
       <c r="E24">
-        <v>0.05340422991416105</v>
+        <v>0.05573026609759957</v>
       </c>
       <c r="F24">
-        <v>0.9123016146359788</v>
+        <v>0.8033626919074308</v>
       </c>
       <c r="G24">
-        <v>0.0008229917460203968</v>
+        <v>0.01991031316179726</v>
       </c>
       <c r="H24">
-        <v>0.006893760943925409</v>
+        <v>0.004372123709070364</v>
       </c>
       <c r="I24">
-        <v>0.007571534047759343</v>
+        <v>0.004591389012484903</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.5218384592767613</v>
+        <v>0.4371481162961857</v>
       </c>
       <c r="L24">
-        <v>0.06650712421061211</v>
+        <v>0.1779158292181435</v>
       </c>
       <c r="M24">
-        <v>1.174794362156092</v>
+        <v>0.1522775882402385</v>
       </c>
       <c r="N24">
-        <v>0.2046957521332686</v>
+        <v>0.06694351986288805</v>
       </c>
       <c r="O24">
-        <v>0.2833665319321241</v>
+        <v>1.169975084290911</v>
       </c>
       <c r="P24">
-        <v>1.03907994605847</v>
+        <v>0.2252316167264894</v>
       </c>
       <c r="Q24">
-        <v>2.309033280122947</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0.2776495689652592</v>
+      </c>
+      <c r="R24">
+        <v>0.9589837880716754</v>
+      </c>
+      <c r="S24">
+        <v>1.962117533218816</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.073335416306804</v>
+        <v>1.015524547028605</v>
       </c>
       <c r="C25">
-        <v>0.1152200885159331</v>
+        <v>0.1305856947785315</v>
       </c>
       <c r="D25">
-        <v>0.08268342825847697</v>
+        <v>0.09133340039895188</v>
       </c>
       <c r="E25">
-        <v>0.04903767482987931</v>
+        <v>0.05197058744401062</v>
       </c>
       <c r="F25">
-        <v>0.8681446311272154</v>
+        <v>0.7697884349190645</v>
       </c>
       <c r="G25">
-        <v>0.0008277080141979137</v>
+        <v>0.02404407393712793</v>
       </c>
       <c r="H25">
-        <v>0.0107682837746818</v>
+        <v>0.007105184792217112</v>
       </c>
       <c r="I25">
-        <v>0.01123720734178679</v>
+        <v>0.006751939839471532</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.5159067929928725</v>
+        <v>0.4370150137687823</v>
       </c>
       <c r="L25">
-        <v>0.06300755833676508</v>
+        <v>0.1855635813706087</v>
       </c>
       <c r="M25">
-        <v>0.9645955610355657</v>
+        <v>0.1436653890797679</v>
       </c>
       <c r="N25">
-        <v>0.1758143628705966</v>
+        <v>0.06426246384410739</v>
       </c>
       <c r="O25">
-        <v>0.2354597636147098</v>
+        <v>0.966777264066792</v>
       </c>
       <c r="P25">
-        <v>1.097540986147132</v>
+        <v>0.1939787262602479</v>
       </c>
       <c r="Q25">
-        <v>2.234926911399668</v>
+        <v>0.2311856647280415</v>
+      </c>
+      <c r="R25">
+        <v>1.007579106876035</v>
+      </c>
+      <c r="S25">
+        <v>1.914122007502925</v>
       </c>
     </row>
   </sheetData>
